--- a/public/Excel/Kelurahan.xlsx
+++ b/public/Excel/Kelurahan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\POLINEMA\SEMESTER 7\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B041B11-E1FE-4733-AEFF-CC11BBFAAD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6982305E-93A6-45AA-B93F-1BCC32599C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7875" xr2:uid="{8D445D63-D7A1-4CB2-B83E-C06A2D96E3F5}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="15375" windowHeight="7875" xr2:uid="{8D445D63-D7A1-4CB2-B83E-C06A2D96E3F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Kecamatan</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>Kel.PESANTREN 2</t>
+  </si>
+  <si>
+    <t>Kel.NGRONGGO 2</t>
   </si>
 </sst>
 </file>
@@ -223,12 +226,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -243,8 +252,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29415477-BF7F-4726-8CD9-661467A3431B}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,8 +945,8 @@
       <c r="A46">
         <v>1</v>
       </c>
-      <c r="B46" t="s">
-        <v>7</v>
+      <c r="B46" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
